--- a/Desercion_Escolar.xlsx
+++ b/Desercion_Escolar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B7E8B63-4568-4464-920F-8DABAA4C9847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71F070AB-CF57-4B98-A9B8-09A1653C750A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="45">
   <si>
     <t>Entidad federativa</t>
   </si>
@@ -28,27 +28,6 @@
     <t>Nivel educativo</t>
   </si>
   <si>
-    <t>2000/2001</t>
-  </si>
-  <si>
-    <t>2005/2006</t>
-  </si>
-  <si>
-    <t>2010/2011</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>2020/2021</t>
-  </si>
-  <si>
-    <t>2021/2022</t>
-  </si>
-  <si>
-    <t>2022/2023</t>
-  </si>
-  <si>
     <t>Estados Unidos Mexicanos</t>
   </si>
   <si>
@@ -161,6 +140,21 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>2000-2001</t>
+  </si>
+  <si>
+    <t>2005-2006</t>
+  </si>
+  <si>
+    <t>2010-2011</t>
+  </si>
+  <si>
+    <t>2015-2016</t>
+  </si>
+  <si>
+    <t>2020-2021</t>
   </si>
 </sst>
 </file>
@@ -599,24 +593,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="20" customWidth="1"/>
+    <col min="1" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -624,33 +618,27 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="6">
         <v>1.9</v>
@@ -667,19 +655,13 @@
       <c r="G5" s="6">
         <v>0.5</v>
       </c>
-      <c r="H5" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7">
         <v>8.3000000000000007</v>
@@ -696,19 +678,13 @@
       <c r="G6" s="7">
         <v>2.9</v>
       </c>
-      <c r="H6" s="7">
-        <v>3.9</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7" s="6">
         <v>17.5</v>
@@ -725,19 +701,13 @@
       <c r="G7" s="6">
         <v>11.6</v>
       </c>
-      <c r="H7" s="6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I7" s="6">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C8" s="7">
         <v>8.3000000000000007</v>
@@ -754,19 +724,13 @@
       <c r="G8" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H8" s="7">
-        <v>8.1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C9" s="6">
         <v>1.5</v>
@@ -783,19 +747,13 @@
       <c r="G9" s="6">
         <v>0.7</v>
       </c>
-      <c r="H9" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C10" s="7">
         <v>8</v>
@@ -812,19 +770,13 @@
       <c r="G10" s="7">
         <v>3</v>
       </c>
-      <c r="H10" s="7">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C11" s="6">
         <v>16.600000000000001</v>
@@ -841,19 +793,13 @@
       <c r="G11" s="6">
         <v>13.5</v>
       </c>
-      <c r="H11" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I11" s="6">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C12" s="7">
         <v>3.8</v>
@@ -870,19 +816,13 @@
       <c r="G12" s="7">
         <v>4.8</v>
       </c>
-      <c r="H12" s="7">
-        <v>10.3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C13" s="6">
         <v>1.3</v>
@@ -899,19 +839,13 @@
       <c r="G13" s="6">
         <v>-0.5</v>
       </c>
-      <c r="H13" s="6">
-        <v>-0.4</v>
-      </c>
-      <c r="I13" s="6">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C14" s="7">
         <v>9.9</v>
@@ -928,19 +862,13 @@
       <c r="G14" s="7">
         <v>1.4</v>
       </c>
-      <c r="H14" s="7">
-        <v>2.9</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C15" s="6">
         <v>16.7</v>
@@ -957,19 +885,13 @@
       <c r="G15" s="6">
         <v>15.2</v>
       </c>
-      <c r="H15" s="6">
-        <v>11.2</v>
-      </c>
-      <c r="I15" s="6">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C16" s="7">
         <v>1.1000000000000001</v>
@@ -986,19 +908,13 @@
       <c r="G16" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H16" s="7">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C17" s="6">
         <v>0.7</v>
@@ -1015,19 +931,13 @@
       <c r="G17" s="6">
         <v>0</v>
       </c>
-      <c r="H17" s="6">
-        <v>-0.5</v>
-      </c>
-      <c r="I17" s="6">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C18" s="7">
         <v>7.2</v>
@@ -1044,19 +954,13 @@
       <c r="G18" s="7">
         <v>2</v>
       </c>
-      <c r="H18" s="7">
-        <v>1.7</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C19" s="6">
         <v>19</v>
@@ -1073,19 +977,13 @@
       <c r="G19" s="6">
         <v>14</v>
       </c>
-      <c r="H19" s="6">
-        <v>13.6</v>
-      </c>
-      <c r="I19" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C20" s="7">
         <v>5.8</v>
@@ -1102,19 +1000,13 @@
       <c r="G20" s="7">
         <v>15.6</v>
       </c>
-      <c r="H20" s="7">
-        <v>16.2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C21" s="6">
         <v>2.2999999999999998</v>
@@ -1131,19 +1023,13 @@
       <c r="G21" s="6">
         <v>1</v>
       </c>
-      <c r="H21" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C22" s="7">
         <v>10.3</v>
@@ -1160,19 +1046,13 @@
       <c r="G22" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H22" s="7">
-        <v>5.3</v>
-      </c>
-      <c r="I22" s="7">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C23" s="6">
         <v>18.3</v>
@@ -1189,19 +1069,13 @@
       <c r="G23" s="6">
         <v>12.9</v>
       </c>
-      <c r="H23" s="6">
-        <v>12.3</v>
-      </c>
-      <c r="I23" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C24" s="7">
         <v>11.1</v>
@@ -1218,19 +1092,13 @@
       <c r="G24" s="7">
         <v>12.8</v>
       </c>
-      <c r="H24" s="7">
-        <v>12</v>
-      </c>
-      <c r="I24" s="7">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
@@ -1247,19 +1115,13 @@
       <c r="G25" s="6">
         <v>0.3</v>
       </c>
-      <c r="H25" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C26" s="7">
         <v>6.5</v>
@@ -1276,19 +1138,13 @@
       <c r="G26" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H26" s="7">
-        <v>3.7</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C27" s="6">
         <v>20.5</v>
@@ -1305,19 +1161,13 @@
       <c r="G27" s="6">
         <v>13.1</v>
       </c>
-      <c r="H27" s="6">
-        <v>12.8</v>
-      </c>
-      <c r="I27" s="6">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C28" s="7">
         <v>12.7</v>
@@ -1334,19 +1184,13 @@
       <c r="G28" s="7">
         <v>11.2</v>
       </c>
-      <c r="H28" s="7">
-        <v>9.6</v>
-      </c>
-      <c r="I28" s="7">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C29" s="6">
         <v>2.7</v>
@@ -1363,19 +1207,13 @@
       <c r="G29" s="6">
         <v>0.5</v>
       </c>
-      <c r="H29" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="I29" s="6">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C30" s="7">
         <v>8.6</v>
@@ -1392,19 +1230,13 @@
       <c r="G30" s="7">
         <v>3.3</v>
       </c>
-      <c r="H30" s="7">
-        <v>7.3</v>
-      </c>
-      <c r="I30" s="7">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C31" s="6">
         <v>14.9</v>
@@ -1421,19 +1253,13 @@
       <c r="G31" s="6">
         <v>12.5</v>
       </c>
-      <c r="H31" s="6">
-        <v>12.4</v>
-      </c>
-      <c r="I31" s="6">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C32" s="7">
         <v>8.9</v>
@@ -1450,19 +1276,13 @@
       <c r="G32" s="7">
         <v>14.6</v>
       </c>
-      <c r="H32" s="7">
-        <v>11.8</v>
-      </c>
-      <c r="I32" s="7">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C33" s="6">
         <v>2.6</v>
@@ -1479,19 +1299,13 @@
       <c r="G33" s="6">
         <v>0.8</v>
       </c>
-      <c r="H33" s="6">
-        <v>-0.1</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C34" s="7">
         <v>6.6</v>
@@ -1508,19 +1322,13 @@
       <c r="G34" s="7">
         <v>3.9</v>
       </c>
-      <c r="H34" s="7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I34" s="7">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C35" s="6">
         <v>13.4</v>
@@ -1537,19 +1345,13 @@
       <c r="G35" s="6">
         <v>10.7</v>
       </c>
-      <c r="H35" s="6">
-        <v>11.7</v>
-      </c>
-      <c r="I35" s="6">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C36" s="7">
         <v>6.1</v>
@@ -1566,19 +1368,13 @@
       <c r="G36" s="7">
         <v>3.6</v>
       </c>
-      <c r="H36" s="7">
-        <v>7.3</v>
-      </c>
-      <c r="I36" s="7">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C37" s="6">
         <v>3</v>
@@ -1595,19 +1391,13 @@
       <c r="G37" s="6">
         <v>-0.6</v>
       </c>
-      <c r="H37" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C38" s="7">
         <v>10.1</v>
@@ -1624,19 +1414,13 @@
       <c r="G38" s="7">
         <v>1.7</v>
       </c>
-      <c r="H38" s="7">
-        <v>5.9</v>
-      </c>
-      <c r="I38" s="7">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C39" s="6">
         <v>20.100000000000001</v>
@@ -1653,19 +1437,13 @@
       <c r="G39" s="6">
         <v>16.5</v>
       </c>
-      <c r="H39" s="6">
-        <v>13.4</v>
-      </c>
-      <c r="I39" s="6">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C40" s="7">
         <v>8.1</v>
@@ -1682,19 +1460,13 @@
       <c r="G40" s="7">
         <v>10</v>
       </c>
-      <c r="H40" s="7">
-        <v>10.5</v>
-      </c>
-      <c r="I40" s="7">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C41" s="6">
         <v>1</v>
@@ -1711,19 +1483,13 @@
       <c r="G41" s="6">
         <v>-0.2</v>
       </c>
-      <c r="H41" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="I41" s="6">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C42" s="7">
         <v>7.5</v>
@@ -1740,19 +1506,13 @@
       <c r="G42" s="7">
         <v>1.7</v>
       </c>
-      <c r="H42" s="7">
-        <v>4.7</v>
-      </c>
-      <c r="I42" s="7">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C43" s="6">
         <v>20.7</v>
@@ -1769,19 +1529,13 @@
       <c r="G43" s="6">
         <v>9.4</v>
       </c>
-      <c r="H43" s="6">
-        <v>14.5</v>
-      </c>
-      <c r="I43" s="6">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C44" s="7">
         <v>9.6</v>
@@ -1798,19 +1552,13 @@
       <c r="G44" s="7">
         <v>7.7</v>
       </c>
-      <c r="H44" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="I44" s="7">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C45" s="6">
         <v>2.2000000000000002</v>
@@ -1827,19 +1575,13 @@
       <c r="G45" s="6">
         <v>1.2</v>
       </c>
-      <c r="H45" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="I45" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C46" s="7">
         <v>9.6999999999999993</v>
@@ -1856,19 +1598,13 @@
       <c r="G46" s="7">
         <v>4.5</v>
       </c>
-      <c r="H46" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I46" s="7">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C47" s="6">
         <v>20.5</v>
@@ -1885,19 +1621,13 @@
       <c r="G47" s="6">
         <v>14.6</v>
       </c>
-      <c r="H47" s="6">
-        <v>13.2</v>
-      </c>
-      <c r="I47" s="6">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C48" s="7">
         <v>7.5</v>
@@ -1914,19 +1644,13 @@
       <c r="G48" s="7">
         <v>10.5</v>
       </c>
-      <c r="H48" s="7">
-        <v>5.8</v>
-      </c>
-      <c r="I48" s="7">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C49" s="6">
         <v>1.8</v>
@@ -1943,19 +1667,13 @@
       <c r="G49" s="6">
         <v>0.6</v>
       </c>
-      <c r="H49" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="I49" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C50" s="7">
         <v>9.1</v>
@@ -1972,19 +1690,13 @@
       <c r="G50" s="7">
         <v>3.6</v>
       </c>
-      <c r="H50" s="7">
-        <v>4</v>
-      </c>
-      <c r="I50" s="7">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C51" s="6">
         <v>20.399999999999999</v>
@@ -2001,19 +1713,13 @@
       <c r="G51" s="6">
         <v>15.5</v>
       </c>
-      <c r="H51" s="6">
-        <v>12.7</v>
-      </c>
-      <c r="I51" s="6">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C52" s="7">
         <v>10.6</v>
@@ -2030,19 +1736,13 @@
       <c r="G52" s="7">
         <v>6.8</v>
       </c>
-      <c r="H52" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I52" s="7">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C53" s="6">
         <v>3.8</v>
@@ -2059,19 +1759,13 @@
       <c r="G53" s="6">
         <v>0.9</v>
       </c>
-      <c r="H53" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="I53" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C54" s="7">
         <v>12</v>
@@ -2088,19 +1782,13 @@
       <c r="G54" s="7">
         <v>3.2</v>
       </c>
-      <c r="H54" s="7">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I54" s="7">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C55" s="6">
         <v>21.2</v>
@@ -2117,19 +1805,13 @@
       <c r="G55" s="6">
         <v>13.9</v>
       </c>
-      <c r="H55" s="6">
-        <v>13.2</v>
-      </c>
-      <c r="I55" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C56" s="7">
         <v>14.7</v>
@@ -2146,19 +1828,13 @@
       <c r="G56" s="7">
         <v>14.6</v>
       </c>
-      <c r="H56" s="7">
-        <v>11.7</v>
-      </c>
-      <c r="I56" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C57" s="6">
         <v>1.1000000000000001</v>
@@ -2175,19 +1851,13 @@
       <c r="G57" s="6">
         <v>-0.1</v>
       </c>
-      <c r="H57" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="I57" s="6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C58" s="7">
         <v>6</v>
@@ -2204,19 +1874,13 @@
       <c r="G58" s="7">
         <v>2.6</v>
       </c>
-      <c r="H58" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I58" s="7">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C59" s="6">
         <v>18.899999999999999</v>
@@ -2233,19 +1897,13 @@
       <c r="G59" s="6">
         <v>14.6</v>
       </c>
-      <c r="H59" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="I59" s="6">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C60" s="7">
         <v>8.9</v>
@@ -2262,19 +1920,13 @@
       <c r="G60" s="7">
         <v>8.5</v>
       </c>
-      <c r="H60" s="7">
-        <v>9</v>
-      </c>
-      <c r="I60" s="7">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C61" s="6">
         <v>2</v>
@@ -2291,19 +1943,13 @@
       <c r="G61" s="6">
         <v>-0.4</v>
       </c>
-      <c r="H61" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="I61" s="6">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C62" s="7">
         <v>11</v>
@@ -2320,19 +1966,13 @@
       <c r="G62" s="7">
         <v>2.1</v>
       </c>
-      <c r="H62" s="7">
-        <v>4.7</v>
-      </c>
-      <c r="I62" s="7">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C63" s="6">
         <v>19</v>
@@ -2349,19 +1989,13 @@
       <c r="G63" s="6">
         <v>1</v>
       </c>
-      <c r="H63" s="6">
-        <v>0</v>
-      </c>
-      <c r="I63" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C64" s="7">
         <v>-0.1</v>
@@ -2378,19 +2012,13 @@
       <c r="G64" s="7">
         <v>3.2</v>
       </c>
-      <c r="H64" s="7">
-        <v>-0.2</v>
-      </c>
-      <c r="I64" s="7">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C65" s="6">
         <v>1.3</v>
@@ -2407,19 +2035,13 @@
       <c r="G65" s="6">
         <v>1.5</v>
       </c>
-      <c r="H65" s="6">
-        <v>-0.5</v>
-      </c>
-      <c r="I65" s="6">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C66" s="7">
         <v>7.9</v>
@@ -2436,19 +2058,13 @@
       <c r="G66" s="7">
         <v>2.4</v>
       </c>
-      <c r="H66" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="I66" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C67" s="6">
         <v>17</v>
@@ -2465,19 +2081,13 @@
       <c r="G67" s="6">
         <v>10.3</v>
       </c>
-      <c r="H67" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="I67" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C68" s="7">
         <v>6.1</v>
@@ -2494,19 +2104,13 @@
       <c r="G68" s="7">
         <v>9.4</v>
       </c>
-      <c r="H68" s="7">
-        <v>7.8</v>
-      </c>
-      <c r="I68" s="7">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C69" s="6">
         <v>3.5</v>
@@ -2523,19 +2127,13 @@
       <c r="G69" s="6">
         <v>2</v>
       </c>
-      <c r="H69" s="6">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="I69" s="6">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C70" s="7">
         <v>11.1</v>
@@ -2552,19 +2150,13 @@
       <c r="G70" s="7">
         <v>8.1</v>
       </c>
-      <c r="H70" s="7">
-        <v>5.8</v>
-      </c>
-      <c r="I70" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C71" s="6">
         <v>15.1</v>
@@ -2581,19 +2173,13 @@
       <c r="G71" s="6">
         <v>16</v>
       </c>
-      <c r="H71" s="6">
-        <v>9.1</v>
-      </c>
-      <c r="I71" s="6">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C72" s="7">
         <v>11.2</v>
@@ -2610,19 +2196,13 @@
       <c r="G72" s="7">
         <v>12.8</v>
       </c>
-      <c r="H72" s="7">
-        <v>10.7</v>
-      </c>
-      <c r="I72" s="7">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C73" s="6">
         <v>1.2</v>
@@ -2639,19 +2219,13 @@
       <c r="G73" s="6">
         <v>1</v>
       </c>
-      <c r="H73" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="I73" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C74" s="7">
         <v>6.1</v>
@@ -2668,19 +2242,13 @@
       <c r="G74" s="7">
         <v>4.5</v>
       </c>
-      <c r="H74" s="7">
-        <v>3.8</v>
-      </c>
-      <c r="I74" s="7">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C75" s="6">
         <v>16.8</v>
@@ -2697,19 +2265,13 @@
       <c r="G75" s="6">
         <v>16.3</v>
       </c>
-      <c r="H75" s="6">
-        <v>11.3</v>
-      </c>
-      <c r="I75" s="6">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C76" s="7">
         <v>6.4</v>
@@ -2726,19 +2288,13 @@
       <c r="G76" s="7">
         <v>6.7</v>
       </c>
-      <c r="H76" s="7">
-        <v>6.8</v>
-      </c>
-      <c r="I76" s="7">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C77" s="6">
         <v>2.2000000000000002</v>
@@ -2755,19 +2311,13 @@
       <c r="G77" s="6">
         <v>0.2</v>
       </c>
-      <c r="H77" s="6">
-        <v>-0.4</v>
-      </c>
-      <c r="I77" s="6">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C78" s="7">
         <v>7</v>
@@ -2784,19 +2334,13 @@
       <c r="G78" s="7">
         <v>2.8</v>
       </c>
-      <c r="H78" s="7">
-        <v>3</v>
-      </c>
-      <c r="I78" s="7">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C79" s="6">
         <v>16.5</v>
@@ -2813,19 +2357,13 @@
       <c r="G79" s="6">
         <v>15.7</v>
       </c>
-      <c r="H79" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="I79" s="6">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C80" s="7">
         <v>4.2</v>
@@ -2842,19 +2380,13 @@
       <c r="G80" s="7">
         <v>7.5</v>
       </c>
-      <c r="H80" s="7">
-        <v>11.1</v>
-      </c>
-      <c r="I80" s="7">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C81" s="6">
         <v>0.9</v>
@@ -2871,19 +2403,13 @@
       <c r="G81" s="6">
         <v>-0.1</v>
       </c>
-      <c r="H81" s="6">
-        <v>-0.2</v>
-      </c>
-      <c r="I81" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C82" s="7">
         <v>5.9</v>
@@ -2900,19 +2426,13 @@
       <c r="G82" s="7">
         <v>1</v>
       </c>
-      <c r="H82" s="7">
-        <v>3.6</v>
-      </c>
-      <c r="I82" s="7">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C83" s="6">
         <v>22.9</v>
@@ -2929,19 +2449,13 @@
       <c r="G83" s="6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H83" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="I83" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C84" s="7">
         <v>-1.2</v>
@@ -2958,19 +2472,13 @@
       <c r="G84" s="7">
         <v>0.8</v>
       </c>
-      <c r="H84" s="7">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="I84" s="7">
-        <v>-2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C85" s="6">
         <v>2.6</v>
@@ -2987,19 +2495,13 @@
       <c r="G85" s="6">
         <v>-1.5</v>
       </c>
-      <c r="H85" s="6">
-        <v>-2.5</v>
-      </c>
-      <c r="I85" s="6">
-        <v>-1.9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C86" s="7">
         <v>8.1</v>
@@ -3016,19 +2518,13 @@
       <c r="G86" s="7">
         <v>6</v>
       </c>
-      <c r="H86" s="7">
-        <v>10.7</v>
-      </c>
-      <c r="I86" s="7">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C87" s="6">
         <v>16.8</v>
@@ -3045,19 +2541,13 @@
       <c r="G87" s="6">
         <v>15</v>
       </c>
-      <c r="H87" s="6">
-        <v>12.2</v>
-      </c>
-      <c r="I87" s="6">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C88" s="7">
         <v>9</v>
@@ -3074,19 +2564,13 @@
       <c r="G88" s="7">
         <v>12.2</v>
       </c>
-      <c r="H88" s="7">
-        <v>15.4</v>
-      </c>
-      <c r="I88" s="7">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C89" s="6">
         <v>2.1</v>
@@ -3103,19 +2587,13 @@
       <c r="G89" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H89" s="6">
-        <v>-0.6</v>
-      </c>
-      <c r="I89" s="6">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C90" s="7">
         <v>7.7</v>
@@ -3132,19 +2610,13 @@
       <c r="G90" s="7">
         <v>3.3</v>
       </c>
-      <c r="H90" s="7">
-        <v>2.8</v>
-      </c>
-      <c r="I90" s="7">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C91" s="6">
         <v>9.8000000000000007</v>
@@ -3161,19 +2633,13 @@
       <c r="G91" s="6">
         <v>8.9</v>
       </c>
-      <c r="H91" s="6">
-        <v>11.3</v>
-      </c>
-      <c r="I91" s="6">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C92" s="7">
         <v>12.4</v>
@@ -3190,19 +2656,13 @@
       <c r="G92" s="7">
         <v>7.8</v>
       </c>
-      <c r="H92" s="7">
-        <v>10.6</v>
-      </c>
-      <c r="I92" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C93" s="6">
         <v>0.8</v>
@@ -3219,19 +2679,13 @@
       <c r="G93" s="6">
         <v>-0.1</v>
       </c>
-      <c r="H93" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="I93" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C94" s="7">
         <v>10.4</v>
@@ -3248,19 +2702,13 @@
       <c r="G94" s="7">
         <v>2</v>
       </c>
-      <c r="H94" s="7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I94" s="7">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C95" s="6">
         <v>19.600000000000001</v>
@@ -3277,19 +2725,13 @@
       <c r="G95" s="6">
         <v>15.7</v>
       </c>
-      <c r="H95" s="6">
-        <v>12.1</v>
-      </c>
-      <c r="I95" s="6">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C96" s="7">
         <v>8.1</v>
@@ -3306,19 +2748,13 @@
       <c r="G96" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H96" s="7">
-        <v>6</v>
-      </c>
-      <c r="I96" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C97" s="6">
         <v>1.1000000000000001</v>
@@ -3335,19 +2771,13 @@
       <c r="G97" s="6">
         <v>0</v>
       </c>
-      <c r="H97" s="6">
-        <v>-0.1</v>
-      </c>
-      <c r="I97" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C98" s="7">
         <v>8.1999999999999993</v>
@@ -3364,19 +2794,13 @@
       <c r="G98" s="7">
         <v>0.5</v>
       </c>
-      <c r="H98" s="7">
-        <v>3.7</v>
-      </c>
-      <c r="I98" s="7">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C99" s="6">
         <v>16</v>
@@ -3393,19 +2817,13 @@
       <c r="G99" s="6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H99" s="6">
-        <v>9.4</v>
-      </c>
-      <c r="I99" s="6">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C100" s="7">
         <v>7.6</v>
@@ -3422,19 +2840,13 @@
       <c r="G100" s="7">
         <v>18</v>
       </c>
-      <c r="H100" s="7">
-        <v>14.1</v>
-      </c>
-      <c r="I100" s="7">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C101" s="6">
         <v>1.8</v>
@@ -3451,19 +2863,13 @@
       <c r="G101" s="6">
         <v>1</v>
       </c>
-      <c r="H101" s="6">
-        <v>-0.2</v>
-      </c>
-      <c r="I101" s="6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C102" s="7">
         <v>6.9</v>
@@ -3480,19 +2886,13 @@
       <c r="G102" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H102" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="I102" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C103" s="6">
         <v>16.2</v>
@@ -3509,19 +2909,13 @@
       <c r="G103" s="6">
         <v>12.9</v>
       </c>
-      <c r="H103" s="6">
-        <v>10.6</v>
-      </c>
-      <c r="I103" s="6">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C104" s="7">
         <v>9.5</v>
@@ -3538,19 +2932,13 @@
       <c r="G104" s="7">
         <v>11</v>
       </c>
-      <c r="H104" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="I104" s="7">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C105" s="6">
         <v>3.3</v>
@@ -3567,19 +2955,13 @@
       <c r="G105" s="6">
         <v>-0.1</v>
       </c>
-      <c r="H105" s="6">
-        <v>-0.2</v>
-      </c>
-      <c r="I105" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C106" s="7">
         <v>7.7</v>
@@ -3596,19 +2978,13 @@
       <c r="G106" s="7">
         <v>3.4</v>
       </c>
-      <c r="H106" s="7">
-        <v>3.6</v>
-      </c>
-      <c r="I106" s="7">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C107" s="6">
         <v>19.100000000000001</v>
@@ -3625,19 +3001,13 @@
       <c r="G107" s="6">
         <v>16.3</v>
       </c>
-      <c r="H107" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I107" s="6">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C108" s="7">
         <v>14.3</v>
@@ -3654,19 +3024,13 @@
       <c r="G108" s="7">
         <v>18</v>
       </c>
-      <c r="H108" s="7">
-        <v>10</v>
-      </c>
-      <c r="I108" s="7">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C109" s="6">
         <v>2.2999999999999998</v>
@@ -3683,19 +3047,13 @@
       <c r="G109" s="6">
         <v>0.2</v>
       </c>
-      <c r="H109" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="I109" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C110" s="7">
         <v>8.6999999999999993</v>
@@ -3712,19 +3070,13 @@
       <c r="G110" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H110" s="7">
-        <v>4.3</v>
-      </c>
-      <c r="I110" s="7">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C111" s="6">
         <v>18</v>
@@ -3741,19 +3093,13 @@
       <c r="G111" s="6">
         <v>12.8</v>
       </c>
-      <c r="H111" s="6">
-        <v>11.8</v>
-      </c>
-      <c r="I111" s="6">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C112" s="7">
         <v>7.8</v>
@@ -3770,19 +3116,13 @@
       <c r="G112" s="7">
         <v>13.9</v>
       </c>
-      <c r="H112" s="7">
-        <v>14.9</v>
-      </c>
-      <c r="I112" s="7">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C113" s="6">
         <v>1.8</v>
@@ -3799,19 +3139,13 @@
       <c r="G113" s="6">
         <v>0.9</v>
       </c>
-      <c r="H113" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I113" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C114" s="7">
         <v>7.4</v>
@@ -3828,19 +3162,13 @@
       <c r="G114" s="7">
         <v>2</v>
       </c>
-      <c r="H114" s="7">
-        <v>2.8</v>
-      </c>
-      <c r="I114" s="7">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C115" s="6">
         <v>10.8</v>
@@ -3857,19 +3185,13 @@
       <c r="G115" s="6">
         <v>10.1</v>
       </c>
-      <c r="H115" s="6">
-        <v>6.1</v>
-      </c>
-      <c r="I115" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C116" s="7">
         <v>14.4</v>
@@ -3886,19 +3208,13 @@
       <c r="G116" s="7">
         <v>7.9</v>
       </c>
-      <c r="H116" s="7">
-        <v>9.1</v>
-      </c>
-      <c r="I116" s="7">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C117" s="6">
         <v>2.1</v>
@@ -3915,19 +3231,13 @@
       <c r="G117" s="6">
         <v>0.2</v>
       </c>
-      <c r="H117" s="6">
-        <v>0</v>
-      </c>
-      <c r="I117" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C118" s="7">
         <v>6.7</v>
@@ -3944,19 +3254,13 @@
       <c r="G118" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H118" s="7">
-        <v>2.9</v>
-      </c>
-      <c r="I118" s="7">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C119" s="6">
         <v>9.9</v>
@@ -3973,19 +3277,13 @@
       <c r="G119" s="6">
         <v>14.8</v>
       </c>
-      <c r="H119" s="6">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I119" s="6">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C120" s="7">
         <v>12</v>
@@ -4002,19 +3300,13 @@
       <c r="G120" s="7">
         <v>10.6</v>
       </c>
-      <c r="H120" s="7">
-        <v>7.7</v>
-      </c>
-      <c r="I120" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C121" s="6">
         <v>0.4</v>
@@ -4031,19 +3323,13 @@
       <c r="G121" s="6">
         <v>0.9</v>
       </c>
-      <c r="H121" s="6">
-        <v>-0.5</v>
-      </c>
-      <c r="I121" s="6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C122" s="7">
         <v>7.2</v>
@@ -4060,19 +3346,13 @@
       <c r="G122" s="7">
         <v>2.8</v>
       </c>
-      <c r="H122" s="7">
-        <v>1.7</v>
-      </c>
-      <c r="I122" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C123" s="6">
         <v>15.4</v>
@@ -4089,19 +3369,13 @@
       <c r="G123" s="6">
         <v>10.7</v>
       </c>
-      <c r="H123" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I123" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C124" s="7">
         <v>11</v>
@@ -4118,19 +3392,13 @@
       <c r="G124" s="7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H124" s="7">
-        <v>5.7</v>
-      </c>
-      <c r="I124" s="7">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C125" s="6">
         <v>2.1</v>
@@ -4147,19 +3415,13 @@
       <c r="G125" s="6">
         <v>1.4</v>
       </c>
-      <c r="H125" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="I125" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C126" s="7">
         <v>7.3</v>
@@ -4176,19 +3438,13 @@
       <c r="G126" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H126" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="I126" s="7">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C127" s="6">
         <v>15.2</v>
@@ -4205,19 +3461,13 @@
       <c r="G127" s="6">
         <v>10.7</v>
       </c>
-      <c r="H127" s="6">
-        <v>6.8</v>
-      </c>
-      <c r="I127" s="6">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C128" s="7">
         <v>10.6</v>
@@ -4234,19 +3484,13 @@
       <c r="G128" s="7">
         <v>13.4</v>
       </c>
-      <c r="H128" s="7">
-        <v>14.3</v>
-      </c>
-      <c r="I128" s="7">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C129" s="6">
         <v>2</v>
@@ -4263,19 +3507,13 @@
       <c r="G129" s="6">
         <v>-2</v>
       </c>
-      <c r="H129" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="I129" s="6">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C130" s="7">
         <v>8.4</v>
@@ -4292,19 +3530,13 @@
       <c r="G130" s="7">
         <v>-0.9</v>
       </c>
-      <c r="H130" s="7">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="I130" s="7">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C131" s="6">
         <v>20.8</v>
@@ -4321,19 +3553,13 @@
       <c r="G131" s="6">
         <v>11.3</v>
       </c>
-      <c r="H131" s="6">
-        <v>11.2</v>
-      </c>
-      <c r="I131" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C132" s="7">
         <v>5.0999999999999996</v>
@@ -4350,19 +3576,13 @@
       <c r="G132" s="7">
         <v>6.3</v>
       </c>
-      <c r="H132" s="7">
-        <v>10.3</v>
-      </c>
-      <c r="I132" s="7">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C133" s="6">
         <v>2.1</v>
@@ -4379,19 +3599,13 @@
       <c r="G133" s="6">
         <v>0.8</v>
       </c>
-      <c r="H133" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="I133" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C134" s="7">
         <v>10.8</v>
@@ -4408,19 +3622,13 @@
       <c r="G134" s="7">
         <v>4.7</v>
       </c>
-      <c r="H134" s="7">
-        <v>4.8</v>
-      </c>
-      <c r="I134" s="7">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C135" s="6">
         <v>17.399999999999999</v>
@@ -4437,19 +3645,13 @@
       <c r="G135" s="6">
         <v>14.9</v>
       </c>
-      <c r="H135" s="6">
-        <v>11</v>
-      </c>
-      <c r="I135" s="6">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C136" s="7">
         <v>11.6</v>
@@ -4466,28 +3668,24 @@
       <c r="G136" s="7">
         <v>15.2</v>
       </c>
-      <c r="H136" s="7">
-        <v>12.2</v>
-      </c>
-      <c r="I136" s="7">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
@@ -4522,31 +3720,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A101:A104"/>
     <mergeCell ref="A125:A128"/>
     <mergeCell ref="A129:A132"/>
     <mergeCell ref="A133:A136"/>
@@ -4555,6 +3728,31 @@
     <mergeCell ref="A113:A116"/>
     <mergeCell ref="A117:A120"/>
     <mergeCell ref="A121:A124"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
